--- a/biology/Botanique/Jardin_japonais_(Kadriorg)/Jardin_japonais_(Kadriorg).xlsx
+++ b/biology/Botanique/Jardin_japonais_(Kadriorg)/Jardin_japonais_(Kadriorg).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin japonais (estonien : Jaapani aed) est un jardin japonais  dans le  parc de  Kadriorg à Tallinn en Estonie[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin japonais (estonien : Jaapani aed) est un jardin japonais  dans le  parc de  Kadriorg à Tallinn en Estonie,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin, achevé en 2011, est conçu par l'architecte paysagiste japonais Masao Sone. L'harmonie entre l'eau, le relief, les grands arbres et les pierres joue un rôle dans la conception du jardin du parc Kadriorg. 
 Le choix des plantes est basé sur les traditions de conception des jardins japonais et le climat estonien. 
